--- a/biology/Zoologie/Catopyrops_florinda/Catopyrops_florinda.xlsx
+++ b/biology/Zoologie/Catopyrops_florinda/Catopyrops_florinda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catopyrops florinda est une espèce de papillons de la famille des Lycaenidae, de la sous-famille des Polyommatinae.
 </t>
@@ -511,17 +523,12 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Catopyrops florinda a été nommé par Arthur Butler en 1877.
-Synonyme : Lampides florinda (Butler, 1877)[1]
-Sous-espèces
-Catopyrops florinda florinda
-Catopyrops florinda estrella (Waterhouse et Lyell, 1914) présent en Australie
-Catopyrops florinda halys (Waterhouse, 1934)[2]
-Catopyrops florinda parva Tite, 1963[1].
-Noms vernaculaires
-Catopyrops florinda estrella se nomme Speckled Line Blue en anglais.
+Synonyme : Lampides florinda (Butler, 1877)
 </t>
         </is>
       </c>
@@ -547,13 +554,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénominations</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un petit papillon au dessus marron clair à violacé et au verso beige orné d'une tache orange proche de la marge anale. Il a une queue.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Catopyrops florinda florinda
+Catopyrops florinda estrella (Waterhouse et Lyell, 1914) présent en Australie
+Catopyrops florinda halys (Waterhouse, 1934)
+Catopyrops florinda parva Tite, 1963.</t>
         </is>
       </c>
     </row>
@@ -578,14 +593,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénominations</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Plantes hôtes
-Les plantes hôtes sont Celtis sinensis, Trema cannabina, Caesalpinia[1].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catopyrops florinda estrella se nomme Speckled Line Blue en anglais.
 </t>
         </is>
       </c>
@@ -611,15 +630,122 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit papillon au dessus marron clair à violacé et au verso beige orné d'une tache orange proche de la marge anale. Il a une queue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Catopyrops_florinda</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopyrops_florinda</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes sont Celtis sinensis, Trema cannabina, Caesalpinia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Catopyrops_florinda</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopyrops_florinda</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il est présent dans toute l'Australasie, en Australie et dans les iles du Pacifique[1].
-Biotope
-Présent en nombre en forêt[3]
-Protection</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans toute l'Australasie, en Australie et dans les iles du Pacifique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Catopyrops_florinda</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopyrops_florinda</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Présent en nombre en forêt
+</t>
         </is>
       </c>
     </row>
